--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1d334e86104297a/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1d334e86104297a/Desktop/Borderhacks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B69F7063-09E2-482D-AEA3-C6B7E114AC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{B69F7063-09E2-482D-AEA3-C6B7E114AC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{813D172E-85D0-4CF5-B4D5-BC9A48BCC6B1}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="38700" windowHeight="15435" xr2:uid="{70BD3A5F-A550-4F56-893B-E99B038BD479}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{70BD3A5F-A550-4F56-893B-E99B038BD479}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -57,9 +57,6 @@
     <t>CT</t>
   </si>
   <si>
-    <t>Skills</t>
-  </si>
-  <si>
     <t>Program</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>Intern</t>
   </si>
   <si>
-    <t>Rnd</t>
-  </si>
-  <si>
     <t>Asst manager</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Excel</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
@@ -282,21 +273,56 @@
     <t>Telemarketer</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>Tweeting</t>
   </si>
   <si>
-    <t>Twitter</t>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Blogging</t>
+  </si>
+  <si>
+    <t>Calling</t>
+  </si>
+  <si>
+    <t>Talking</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Skill 2</t>
+  </si>
+  <si>
+    <t>Skill Level 2</t>
+  </si>
+  <si>
+    <t>Skill 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -324,9 +350,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -643,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1553B78-5EE6-4F89-9ACC-14A87D3BDC73}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,349 +686,405 @@
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="I4" s="1">
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I6" s="1">
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
@@ -1008,395 +1093,468 @@
         <v>84</v>
       </c>
       <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I11" s="1">
         <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I12" s="1">
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I13" s="1">
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="I16" s="1">
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I17" s="1">
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I19" s="1">
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K21" s="1">
+        <v>2</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M21" s="1">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1d334e86104297a/Desktop/Borderhacks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{B69F7063-09E2-482D-AEA3-C6B7E114AC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{813D172E-85D0-4CF5-B4D5-BC9A48BCC6B1}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{B69F7063-09E2-482D-AEA3-C6B7E114AC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9669F1A5-5C98-4AA8-BFAE-F55B6429C68C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{70BD3A5F-A550-4F56-893B-E99B038BD479}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Program</t>
   </si>
   <si>
-    <t>Skill Level</t>
-  </si>
-  <si>
     <t>Program Level</t>
   </si>
   <si>
@@ -225,15 +222,6 @@
     <t>Tenacity</t>
   </si>
   <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
@@ -249,12 +237,6 @@
     <t>MS Office</t>
   </si>
   <si>
-    <t>Dialing</t>
-  </si>
-  <si>
-    <t>Typing</t>
-  </si>
-  <si>
     <t>VSC</t>
   </si>
   <si>
@@ -264,49 +246,103 @@
     <t>Google</t>
   </si>
   <si>
-    <t>E-mail</t>
-  </si>
-  <si>
     <t>Salesman</t>
   </si>
   <si>
     <t>Telemarketer</t>
   </si>
   <si>
-    <t>Tweeting</t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
-  <si>
     <t>Wikipedia</t>
   </si>
   <si>
-    <t>CSS</t>
-  </si>
-  <si>
-    <t>C#</t>
-  </si>
-  <si>
-    <t>Blogging</t>
-  </si>
-  <si>
-    <t>Calling</t>
-  </si>
-  <si>
-    <t>Talking</t>
-  </si>
-  <si>
-    <t>Writing</t>
-  </si>
-  <si>
-    <t>Skill 2</t>
-  </si>
-  <si>
-    <t>Skill Level 2</t>
-  </si>
-  <si>
-    <t>Skill 1</t>
+    <t>Java,Python</t>
+  </si>
+  <si>
+    <t>Python,Java</t>
+  </si>
+  <si>
+    <t>C,C#</t>
+  </si>
+  <si>
+    <t>Spreadsheets,Typing</t>
+  </si>
+  <si>
+    <t>E-mail,Research</t>
+  </si>
+  <si>
+    <t>Typing,Research</t>
+  </si>
+  <si>
+    <t>E-mail,Dialing</t>
+  </si>
+  <si>
+    <t>Dialing,Talking</t>
+  </si>
+  <si>
+    <t>Dialing,Writing</t>
+  </si>
+  <si>
+    <t>Python,CSS</t>
+  </si>
+  <si>
+    <t>E-mail,Writing</t>
+  </si>
+  <si>
+    <t>E-mail,Calling</t>
+  </si>
+  <si>
+    <t>Tweeting,Blogging</t>
+  </si>
+  <si>
+    <t>Java,CSS</t>
+  </si>
+  <si>
+    <t>Skill(s)</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>5,3</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>Skill Level(s)</t>
   </si>
 </sst>
 </file>
@@ -675,7 +711,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,8 +720,8 @@
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
@@ -715,843 +751,759 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2</v>
+        <v>73</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K2" s="1">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2</v>
-      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3</v>
+        <v>74</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K3" s="1">
         <v>3</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="K4" s="1">
         <v>4</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" s="1">
-        <v>4</v>
-      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3</v>
+        <v>76</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K5" s="1">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="1">
         <v>2</v>
       </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1">
-        <v>4</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="1">
         <v>3</v>
       </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K7" s="1">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="1">
         <v>3</v>
       </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="1">
         <v>2</v>
       </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" s="1">
         <v>4</v>
       </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="1">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="K10" s="1">
-        <v>3</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="1">
         <v>5</v>
       </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="1">
-        <v>4</v>
+        <v>84</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="K11" s="1">
-        <v>4</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="1">
         <v>5</v>
       </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="1">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K12" s="1">
-        <v>4</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="1">
         <v>3</v>
       </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="1">
-        <v>5</v>
+        <v>83</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="K13" s="1">
-        <v>5</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="1">
         <v>2</v>
       </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3</v>
+        <v>82</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="K14" s="1">
-        <v>3</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="1">
         <v>4</v>
       </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="K15" s="1">
-        <v>2</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="1">
         <v>5</v>
       </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="1">
-        <v>5</v>
+        <v>80</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="K16" s="1">
-        <v>5</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="1">
         <v>3</v>
       </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3</v>
+        <v>79</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K17" s="1">
-        <v>3</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="1">
         <v>2</v>
       </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="1">
-        <v>5</v>
+        <v>76</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K19" s="1">
-        <v>5</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="1">
         <v>3</v>
       </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K20" s="1">
-        <v>2</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M20" s="1">
         <v>4</v>
       </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="1">
-        <v>2</v>
+      <c r="I21" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K21" s="1">
-        <v>2</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M21" s="1">
         <v>4</v>
       </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c1d334e86104297a/Desktop/Borderhacks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="8_{B69F7063-09E2-482D-AEA3-C6B7E114AC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9669F1A5-5C98-4AA8-BFAE-F55B6429C68C}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="8_{B69F7063-09E2-482D-AEA3-C6B7E114AC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5814785-B474-49A7-BF62-7CCA106C5E93}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{70BD3A5F-A550-4F56-893B-E99B038BD479}"/>
+    <workbookView xWindow="-13965" yWindow="1815" windowWidth="21600" windowHeight="15435" xr2:uid="{70BD3A5F-A550-4F56-893B-E99B038BD479}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,18 +222,6 @@
     <t>Tenacity</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
     <t>MS Office</t>
   </si>
   <si>
@@ -343,6 +331,18 @@
   </si>
   <si>
     <t>Skill Level(s)</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,10 +751,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
@@ -785,16 +785,16 @@
         <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K2" s="1">
         <v>2</v>
@@ -822,16 +822,16 @@
         <v>57</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K3" s="1">
         <v>3</v>
@@ -859,16 +859,16 @@
         <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="K4" s="1">
         <v>4</v>
@@ -896,16 +896,16 @@
         <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K5" s="1">
         <v>2</v>
@@ -933,16 +933,16 @@
         <v>60</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K6" s="1">
         <v>3</v>
@@ -970,16 +970,16 @@
         <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K7" s="1">
         <v>3</v>
@@ -1007,16 +1007,16 @@
         <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K8" s="1">
         <v>2</v>
@@ -1044,16 +1044,16 @@
         <v>56</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K9" s="1">
         <v>4</v>
@@ -1081,16 +1081,16 @@
         <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="K10" s="1">
         <v>5</v>
@@ -1118,16 +1118,16 @@
         <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K11" s="1">
         <v>5</v>
@@ -1155,16 +1155,16 @@
         <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K12" s="1">
         <v>3</v>
@@ -1192,16 +1192,16 @@
         <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
@@ -1229,16 +1229,16 @@
         <v>57</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K14" s="1">
         <v>4</v>
@@ -1257,7 +1257,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>47</v>
@@ -1266,16 +1266,16 @@
         <v>61</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K15" s="1">
         <v>5</v>
@@ -1294,7 +1294,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>54</v>
@@ -1303,16 +1303,16 @@
         <v>61</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K16" s="1">
         <v>3</v>
@@ -1340,16 +1340,16 @@
         <v>60</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K17" s="1">
         <v>2</v>
@@ -1377,16 +1377,16 @@
         <v>56</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -1414,16 +1414,16 @@
         <v>56</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K19" s="1">
         <v>3</v>
@@ -1451,16 +1451,16 @@
         <v>57</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K20" s="1">
         <v>4</v>
@@ -1488,16 +1488,16 @@
         <v>58</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K21" s="1">
         <v>4</v>
